--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAppoggi.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAppoggi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565AC67-322F-4695-B6BA-B7E97BF7230C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA177981-C64A-45C7-9BFF-F4979CD19959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="22740" windowHeight="15030" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -5747,7 +5747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -5776,21 +5776,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -5807,10 +5792,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5818,8 +5809,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -6138,8 +6136,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:IH900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6160,15 +6158,15 @@
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="28" t="s">
         <v>1834</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="1"/>
@@ -6407,18 +6405,18 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="5"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -6654,13 +6652,13 @@
       <c r="IH2" s="1"/>
     </row>
     <row r="3" spans="1:242" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="9"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -6896,10 +6894,10 @@
       <c r="IH3" s="1"/>
     </row>
     <row r="4" spans="1:242" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="25"/>
       <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
@@ -7150,10 +7148,10 @@
       <c r="IH4" s="1"/>
     </row>
     <row r="5" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -7182,10 +7180,10 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:242" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="18">
         <v>195</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -7331,10 +7329,10 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:242" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="25"/>
       <c r="E11" s="2" t="s">
         <v>60</v>
       </c>
@@ -7361,10 +7359,10 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="16" t="s">
         <v>1832</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -7393,10 +7391,10 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:242" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="18">
         <v>196</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -7452,10 +7450,10 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:242" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="27"/>
       <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
@@ -7482,10 +7480,10 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:242" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -7514,10 +7512,10 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="19">
         <v>2890</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -7546,10 +7544,10 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="20">
         <v>250</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -7604,10 +7602,10 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="25"/>
       <c r="E20" s="2" t="s">
         <v>87</v>
       </c>
@@ -7634,10 +7632,10 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -7666,10 +7664,10 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="18">
         <v>250</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -7724,10 +7722,10 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="25"/>
       <c r="E24" s="2" t="s">
         <v>99</v>
       </c>
@@ -7754,10 +7752,10 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -7786,10 +7784,10 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -7845,10 +7843,10 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="25"/>
       <c r="E28" s="2" t="s">
         <v>111</v>
       </c>
@@ -7875,10 +7873,10 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -7907,10 +7905,10 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -7965,10 +7963,10 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="2:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="19"/>
+      <c r="C32" s="25"/>
       <c r="E32" s="2" t="s">
         <v>123</v>
       </c>
@@ -7995,10 +7993,10 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -8027,10 +8025,10 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -8059,10 +8057,10 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -8091,10 +8089,10 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="2" t="s">

--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAppoggi.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAppoggi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BCAB18-9B8E-4F02-A3FF-7BF23BBDF0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C908C-B492-44FB-B380-505DB0AC001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -5557,7 +5557,7 @@
     <t xml:space="preserve">{memory_type} {bit} {byte} {io_name} {db_name} {variable_name} {comment} </t>
   </si>
   <si>
-    <t>Lasciando un campo vuoto, verra riempito coi valori di default. Lasciando il campo "DB" vuoto, la variabile verrà generata all'interno al blocco generato in base al tipo di memoria selezionato.</t>
+    <t>Lasciando un campo vuoto, verrano usati valori di default. Con "DB" vuoto, la variabile verrà generata nel tipo di memoria scelto. Mettendo \ in "nome io" o "variabile", nulla verrà generato.</t>
   </si>
 </sst>
 </file>
@@ -6136,8 +6136,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:IH900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAppoggi.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAppoggi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C908C-B492-44FB-B380-505DB0AC001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9A1224-1CAA-4875-BBEE-ABBEFA09D5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="20640" windowHeight="11835" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -6137,7 +6137,7 @@
   <dimension ref="A1:IH900"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:I3"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAppoggi.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAppoggi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9A1224-1CAA-4875-BBEE-ABBEFA09D5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63956C4-80DE-40C8-A981-69E3537E3CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="20640" windowHeight="11835" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -6137,7 +6137,7 @@
   <dimension ref="A1:IH900"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+      <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
